--- a/plataforma_cursos/Dicionario_plataformaCursos.xlsx
+++ b/plataforma_cursos/Dicionario_plataformaCursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41471153819\Desktop\Banco-de-Dados\plataforma_cursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D1D5A4-410B-44BD-9FA0-6DCDFDC5BD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D457578-7F5B-43A5-A98B-2B615589E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86655911-C007-4984-9405-A3CE3812F61F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{86655911-C007-4984-9405-A3CE3812F61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="79">
   <si>
     <t>CAMPO</t>
   </si>
@@ -269,7 +269,10 @@
     <t>Situação da inscrição.</t>
   </si>
   <si>
-    <t>Não nulo (ativa/ concluída/ trancada)</t>
+    <t>Não nulo ('tutor', 'titular').</t>
+  </si>
+  <si>
+    <t>Não nulo ('ativa',  'concluída', 'trancada')</t>
   </si>
 </sst>
 </file>
@@ -455,24 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -509,6 +494,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,6 +1094,111 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1112,111 +1220,6 @@
           <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1233,16 +1236,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{400A1EBD-ABEC-4408-AAE7-2BA748552372}" name="Tabela1" displayName="Tabela1" ref="C7:I11" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{400A1EBD-ABEC-4408-AAE7-2BA748552372}" name="Tabela1" displayName="Tabela1" ref="C7:I11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="C7:I11" xr:uid="{400A1EBD-ABEC-4408-AAE7-2BA748552372}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8FDFF62E-50E1-4C1C-804C-90B4996C6E8F}" name="CAMPO" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{12ACC66E-A276-4A9F-B763-D989B3787766}" name="TIPO DADO" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{6609973D-99F8-4A10-896E-57C806C0A903}" name="TAM" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{1BBB6BA4-E213-4239-BB43-D908C0E95424}" name="PK" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{17E28E3F-E205-4D87-BF71-80A9C3B06239}" name="FK" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{21618D5D-0A6E-46F3-8714-84C09B50F665}" name="RESTRIÇÕES" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{C491C58F-A5EA-47E9-9DAC-4966F3FEDF6D}" name="DESCRIÇÃO" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8FDFF62E-50E1-4C1C-804C-90B4996C6E8F}" name="CAMPO" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{12ACC66E-A276-4A9F-B763-D989B3787766}" name="TIPO DADO" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{6609973D-99F8-4A10-896E-57C806C0A903}" name="TAM" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{1BBB6BA4-E213-4239-BB43-D908C0E95424}" name="PK" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{17E28E3F-E205-4D87-BF71-80A9C3B06239}" name="FK" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{21618D5D-0A6E-46F3-8714-84C09B50F665}" name="RESTRIÇÕES" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{C491C58F-A5EA-47E9-9DAC-4966F3FEDF6D}" name="DESCRIÇÃO" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1631,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EFAF50-8759-43FA-BB2A-49FB7F52A0F9}">
   <dimension ref="C4:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,60 +1651,60 @@
   <sheetData>
     <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1712,17 +1715,17 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1733,19 +1736,19 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>255</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1756,19 +1759,19 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>255</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1780,60 +1783,60 @@
     </row>
     <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1844,19 +1847,19 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <v>255</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1867,17 +1870,17 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1889,60 +1892,60 @@
     </row>
     <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1953,17 +1956,17 @@
       </c>
     </row>
     <row r="28" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -1974,19 +1977,19 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="13">
         <v>255</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="F29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="5"/>
@@ -1995,17 +1998,17 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="3"/>
@@ -2014,17 +2017,17 @@
       </c>
     </row>
     <row r="31" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="19" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2036,60 +2039,60 @@
     </row>
     <row r="34" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -2100,19 +2103,19 @@
       </c>
     </row>
     <row r="39" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="15">
         <v>255</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="21" t="s">
+      <c r="F39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -2123,17 +2126,17 @@
       </c>
     </row>
     <row r="40" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="19" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="5"/>
@@ -2143,60 +2146,60 @@
     </row>
     <row r="43" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -2207,17 +2210,17 @@
       </c>
     </row>
     <row r="48" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -2228,19 +2231,19 @@
       </c>
     </row>
     <row r="49" spans="3:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="13">
         <v>255</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -2251,17 +2254,17 @@
       </c>
     </row>
     <row r="50" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="21" t="s">
+      <c r="E50" s="15"/>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -2272,17 +2275,17 @@
       </c>
     </row>
     <row r="51" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="19" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -2294,60 +2297,60 @@
     </row>
     <row r="54" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -2358,19 +2361,19 @@
       </c>
     </row>
     <row r="59" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="15">
         <v>255</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="21" t="s">
+      <c r="F59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2381,19 +2384,19 @@
       </c>
     </row>
     <row r="60" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="13">
         <v>255</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -2405,60 +2408,60 @@
     </row>
     <row r="63" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
     </row>
     <row r="66" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2469,17 +2472,17 @@
       </c>
     </row>
     <row r="68" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="21" t="s">
+      <c r="E68" s="15"/>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -2490,17 +2493,17 @@
       </c>
     </row>
     <row r="69" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -2511,23 +2514,21 @@
       </c>
     </row>
     <row r="70" spans="3:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="21">
-        <v>255</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="21" t="s">
+      <c r="D70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>66</v>
@@ -2535,60 +2536,60 @@
     </row>
     <row r="73" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="11"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="14"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19" t="s">
+      <c r="E77" s="13"/>
+      <c r="F77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2599,17 +2600,17 @@
       </c>
     </row>
     <row r="78" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="21" t="s">
+      <c r="E78" s="15"/>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -2620,17 +2621,17 @@
       </c>
     </row>
     <row r="79" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="19" t="s">
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -2641,17 +2642,17 @@
       </c>
     </row>
     <row r="80" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="21" t="s">
+      <c r="E80" s="15"/>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -2662,21 +2663,21 @@
       </c>
     </row>
     <row r="81" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="19" t="s">
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>76</v>
